--- a/results_of_test/test_3/Fidelity_result_intra_states_q_1_engl_False.xlsx
+++ b/results_of_test/test_3/Fidelity_result_intra_states_q_1_engl_False.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>States</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>ket_1_qubits_2</t>
+  </si>
+  <si>
+    <t>ket_1_qubits_3</t>
+  </si>
+  <si>
+    <t>ket_1_qubits_4</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,16 +429,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.000000005079821</v>
+        <v>1.000000005288564</v>
       </c>
       <c r="C2">
-        <v>1.000000005853938</v>
+        <v>1.000000006044582</v>
       </c>
       <c r="D2">
-        <v>8.245755858803098E-09</v>
+        <v>1.115391468006485E-08</v>
       </c>
       <c r="E2">
-        <v>8.203898327213963E-09</v>
+        <v>8.424279463209325E-09</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,16 +446,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.000000004988436</v>
+        <v>0.999999992201413</v>
       </c>
       <c r="C3">
-        <v>1.000000005578385</v>
+        <v>0.9999999929482073</v>
       </c>
       <c r="D3">
-        <v>8.12685349241801E-09</v>
+        <v>9.733426474822799E-08</v>
       </c>
       <c r="E3">
-        <v>9.260356666203001E-09</v>
+        <v>6.005149366493722E-08</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,16 +463,50 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.000000003728216</v>
+        <v>0.999999981051741</v>
       </c>
       <c r="C4">
-        <v>1.000000001183662</v>
+        <v>0.9999999911412187</v>
       </c>
       <c r="D4">
-        <v>1.067286246463658E-08</v>
+        <v>9.858744268194228E-08</v>
       </c>
       <c r="E4">
-        <v>1.080939025231243E-08</v>
+        <v>5.964759536839085E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.9999999702777062</v>
+      </c>
+      <c r="C5">
+        <v>0.9999999849242446</v>
+      </c>
+      <c r="D5">
+        <v>1.050073085786215E-07</v>
+      </c>
+      <c r="E5">
+        <v>6.185092077263042E-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.9999999642207565</v>
+      </c>
+      <c r="C6">
+        <v>0.9999999695068671</v>
+      </c>
+      <c r="D6">
+        <v>1.052517331956122E-07</v>
+      </c>
+      <c r="E6">
+        <v>7.642228508829373E-08</v>
       </c>
     </row>
   </sheetData>
